--- a/Internship Checklist.xlsx
+++ b/Internship Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A.Own Folder\school1\level 2 (sem2)\Intern\Digital Genius\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A.Own Folder\Intern Working\Internship Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E14F8-228D-449C-B2E1-B07DC8A799DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D84C30-A24B-4603-A27A-6CF9E8CACC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DC187DC-364A-4728-9DB5-A8B3625F4E2C}"/>
+    <workbookView xWindow="4044" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{9DC187DC-364A-4728-9DB5-A8B3625F4E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Intership Start Date:</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Email Supervisor &amp; Company Details to mentor</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Ask mentor to review</t>
+  </si>
+  <si>
+    <t>Mentor visits company</t>
   </si>
 </sst>
 </file>
@@ -826,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E96CA-AFBC-4F73-9C60-EB154EFDCB56}">
   <dimension ref="B4:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -895,7 +904,9 @@
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="12">
@@ -907,7 +918,9 @@
       <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="13"/>
@@ -1028,7 +1041,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -1046,7 +1059,9 @@
       <c r="D29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="13"/>

--- a/Internship Checklist.xlsx
+++ b/Internship Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A.Own Folder\Intern Working\Internship Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A.Own Folder\school1\level 2 (sem2)\Intern\Internship Report Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D84C30-A24B-4603-A27A-6CF9E8CACC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D660D933-E57E-4997-9A28-2F4FE868AE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{9DC187DC-364A-4728-9DB5-A8B3625F4E2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DC187DC-364A-4728-9DB5-A8B3625F4E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Intership Start Date:</t>
   </si>
@@ -147,16 +147,13 @@
     <t>Report after meeting with mentor</t>
   </si>
   <si>
-    <t>Email Supervisor &amp; Company Details to mentor</t>
-  </si>
-  <si>
     <t>Cover</t>
   </si>
   <si>
-    <t>Ask mentor to review</t>
-  </si>
-  <si>
-    <t>Mentor visits company</t>
+    <t>Metor visits company</t>
+  </si>
+  <si>
+    <t>Email Supervisor &amp; Company Details to mentor and Mr Kau</t>
   </si>
 </sst>
 </file>
@@ -835,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E96CA-AFBC-4F73-9C60-EB154EFDCB56}">
   <dimension ref="B4:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -845,7 +842,7 @@
     <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -904,9 +901,7 @@
       <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="12">
@@ -918,9 +913,7 @@
       <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="13"/>
@@ -939,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="13.8" customHeight="1">
@@ -1041,7 +1034,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -1060,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:5">

--- a/Internship Checklist.xlsx
+++ b/Internship Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A.Own Folder\school1\level 2 (sem2)\Intern\Internship Report Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A.Own Folder\Intern Working\Internship Report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D660D933-E57E-4997-9A28-2F4FE868AE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B3963-7239-46D7-812E-539BDDC3FAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DC187DC-364A-4728-9DB5-A8B3625F4E2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Intership Start Date:</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Done </t>
-  </si>
-  <si>
     <t>Project Log Sheet</t>
   </si>
   <si>
@@ -147,13 +144,13 @@
     <t>Report after meeting with mentor</t>
   </si>
   <si>
+    <t>Email Supervisor &amp; Company Details to mentor</t>
+  </si>
+  <si>
     <t>Cover</t>
   </si>
   <si>
-    <t>Metor visits company</t>
-  </si>
-  <si>
-    <t>Email Supervisor &amp; Company Details to mentor and Mr Kau</t>
+    <t>Metor visits company during week 7 to week 9</t>
   </si>
 </sst>
 </file>
@@ -356,16 +353,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446313</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3914</xdr:rowOff>
+      <xdr:rowOff>58343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78266</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557237</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47009</xdr:rowOff>
+      <xdr:rowOff>101438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -388,8 +385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7837714" y="1299314"/>
-          <a:ext cx="3158924" cy="2437952"/>
+          <a:off x="13073742" y="1277543"/>
+          <a:ext cx="3158924" cy="2307324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,16 +485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>261258</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>153928</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293915</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>429526</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>162501</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>462183</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -520,8 +517,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11615058" y="1198957"/>
+          <a:off x="16578944" y="1329585"/>
           <a:ext cx="3825868" cy="2446973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638136</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3E258C-BD9A-49A6-AC8E-9A76C6E2B862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7663543"/>
+          <a:ext cx="7678222" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0AF379-93A6-478E-A2F7-10F97E181B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9046029" y="1088462"/>
+          <a:ext cx="3772990" cy="2792933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,7 +918,7 @@
   <dimension ref="B4:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -842,7 +927,7 @@
     <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -852,9 +937,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="3">
-        <v>44151</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
@@ -888,13 +971,11 @@
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="12">
-        <v>44147</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
@@ -904,35 +985,31 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="12">
-        <v>44147</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="13.8" customHeight="1">
@@ -1010,7 +1087,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -1027,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1042,7 +1119,7 @@
       <c r="B28" s="13"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -1050,7 +1127,7 @@
       <c r="B29" s="13"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>38</v>
@@ -1060,7 +1137,7 @@
       <c r="B30" s="13"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="7"/>
     </row>
@@ -1068,7 +1145,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -1076,7 +1153,7 @@
       <c r="B32" s="13"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -1084,7 +1161,7 @@
       <c r="B33" s="13"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7"/>
     </row>
@@ -1092,7 +1169,7 @@
       <c r="B34" s="13"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -1100,7 +1177,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="7"/>
     </row>
@@ -1108,7 +1185,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -1116,7 +1193,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -1124,7 +1201,7 @@
       <c r="B38" s="13"/>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -1132,7 +1209,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -1140,7 +1217,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -1148,7 +1225,7 @@
       <c r="B41" s="14"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="8"/>
     </row>
